--- a/assets/CorpLingClippingsData_1684234312750_0.xlsx
+++ b/assets/CorpLingClippingsData_1684234312750_0.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quirin/proj/corpling231/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320E1935-7F84-184C-BFEA-305EEE27860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779BAE2B-913F-6042-B66A-1EDC948AE447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
-    <sheet name="pivot" sheetId="5" r:id="rId2"/>
+    <sheet name="pivot" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId3"/>
+    <pivotCache cacheId="6" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
   <si>
     <t>WordFam</t>
   </si>
@@ -155,7 +168,7 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>Average of FreqTotRel</t>
+    <t>Sum of FreqTotAbs</t>
   </si>
 </sst>
 </file>
@@ -201,52 +214,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -356,6 +333,42 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -383,7 +396,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[CorpLingClippingsData_1684234312750_0.xlsx]pivot!PivotTable3</c:name>
+    <c:name>[CorpLingClippingsData_1684234312750_0.xlsx]pivot!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -501,6 +514,328 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -534,90 +869,108 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$5:$A$15</c:f>
+              <c:f>pivot!$A$5:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>application</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>baby-boomer</c:v>
+                  <c:v>picture</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>decaffeinated</c:v>
+                  <c:v>independent</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>dormitory</c:v>
+                  <c:v>university</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>examination</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>introduction</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pornography</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>puppy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dormitory</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Gothic</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>baby-boomer</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>hippoptamus</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>introduction</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>pornography</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>prenuptial agreement</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>puppy</c:v>
+                <c:pt idx="13">
+                  <c:v>decaffeinated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$B$5:$B$15</c:f>
+              <c:f>pivot!$B$5:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>11028485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08</c:v>
+                  <c:v>8912337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>5999437</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.72</c:v>
+                  <c:v>5968049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9E-3</c:v>
+                  <c:v>1358399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.02</c:v>
+                  <c:v>1773750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>353109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.21</c:v>
+                  <c:v>523713</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0000000000000001E-4</c:v>
+                  <c:v>121000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4E-5</c:v>
+                  <c:v>141973</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.44</c:v>
+                  <c:v>5846</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9565</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-964D-744F-AF4F-8E6E04A52948}"/>
+              <c16:uniqueId val="{00000004-F279-F44A-80AE-6F41BA1CB135}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,90 +1000,108 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$5:$A$15</c:f>
+              <c:f>pivot!$A$5:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>application</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>baby-boomer</c:v>
+                  <c:v>picture</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>decaffeinated</c:v>
+                  <c:v>independent</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>dormitory</c:v>
+                  <c:v>university</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>examination</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>introduction</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>pornography</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>puppy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dormitory</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Gothic</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>baby-boomer</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>hippoptamus</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>introduction</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>pornography</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>prenuptial agreement</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>puppy</c:v>
+                <c:pt idx="13">
+                  <c:v>decaffeinated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$C$5:$C$15</c:f>
+              <c:f>pivot!$C$5:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>7.1999999999999998E-3</c:v>
+                  <c:v>5041979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.34</c:v>
+                  <c:v>487848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1E-5</c:v>
+                  <c:v>531933</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1</c:v>
+                  <c:v>77873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3E-3</c:v>
+                  <c:v>1597528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>149671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>463271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.13</c:v>
+                  <c:v>244567</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6E-4</c:v>
+                  <c:v>218023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0000000000000002E-5</c:v>
+                  <c:v>56024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.48</c:v>
+                  <c:v>164970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38869</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-964D-744F-AF4F-8E6E04A52948}"/>
+              <c16:uniqueId val="{00000005-F279-F44A-80AE-6F41BA1CB135}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -744,11 +1115,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2109257968"/>
-        <c:axId val="346155872"/>
+        <c:axId val="1901384560"/>
+        <c:axId val="329557472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109257968"/>
+        <c:axId val="1901384560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +1162,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346155872"/>
+        <c:crossAx val="329557472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +1170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346155872"/>
+        <c:axId val="329557472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +1221,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109257968"/>
+        <c:crossAx val="1901384560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1501,22 +1872,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>331432</xdr:colOff>
+      <xdr:colOff>327910</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>5132</xdr:rowOff>
+      <xdr:rowOff>5644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>761406</xdr:colOff>
+      <xdr:colOff>54667</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>92123</xdr:rowOff>
+      <xdr:rowOff>39509</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645CCFA1-4700-CB3A-4D6E-89F45D12813A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0658C7-3902-CD4E-0346-ADB1235B402B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,11 +1909,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Quirin Würschinger" refreshedDate="45062.540612037039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{BD31EA62-E699-804E-B0E8-E3AC429953CF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Quirin Würschinger" refreshedDate="45069.405396759263" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="28" xr:uid="{928FDC32-2896-EB41-A8AB-A19928D1FB1F}">
   <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
+    <worksheetSource name="data"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="7">
     <cacheField name="WordFam" numFmtId="0">
       <sharedItems count="14">
         <s v="hippoptamus"/>
@@ -1574,40 +1945,12 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4972" maxValue="11028485"/>
     </cacheField>
     <cacheField name="FreqTotRel" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1E-5" maxValue="126.68" count="28">
-        <n v="0.1"/>
-        <n v="0.55000000000000004"/>
-        <n v="1.9E-3"/>
-        <n v="2.3E-3"/>
-        <n v="1.72"/>
-        <n v="3.1"/>
-        <n v="25.21"/>
-        <n v="2.13"/>
-        <n v="7.56"/>
-        <n v="85.28"/>
-        <n v="7.0000000000000007E-2"/>
-        <n v="1.1E-5"/>
-        <n v="1.6E-2"/>
-        <n v="7.1999999999999998E-3"/>
-        <n v="2.02"/>
-        <n v="0.8"/>
-        <n v="0.08"/>
-        <n v="2.34"/>
-        <n v="7.44"/>
-        <n v="3.48"/>
-        <n v="126.68"/>
-        <n v="6.93"/>
-        <n v="5.0000000000000001E-4"/>
-        <n v="6.6E-4"/>
-        <n v="84.83"/>
-        <n v="1.1E-4"/>
-        <n v="1.4E-5"/>
-        <n v="2.0000000000000002E-5"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1E-5" maxValue="126.68"/>
     </cacheField>
     <cacheField name="Group" numFmtId="0">
       <sharedItems/>
     </cacheField>
+    <cacheField name="Field1" numFmtId="0" formula="Group" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1624,7 +1967,7 @@
     <s v="hippotamus"/>
     <x v="0"/>
     <n v="7140"/>
-    <x v="0"/>
+    <n v="0.1"/>
     <s v="Misfits"/>
   </r>
   <r>
@@ -1632,7 +1975,7 @@
     <s v="hippo"/>
     <x v="1"/>
     <n v="38869"/>
-    <x v="1"/>
+    <n v="0.55000000000000004"/>
     <s v="Misfits"/>
   </r>
   <r>
@@ -1640,7 +1983,7 @@
     <s v="examination"/>
     <x v="0"/>
     <n v="1358399"/>
-    <x v="2"/>
+    <n v="1.9E-3"/>
     <s v="Team BadAtThis"/>
   </r>
   <r>
@@ -1648,7 +1991,7 @@
     <s v="exam"/>
     <x v="1"/>
     <n v="1597528"/>
-    <x v="3"/>
+    <n v="2.3E-3"/>
     <s v="Team BadAtThis"/>
   </r>
   <r>
@@ -1656,7 +1999,7 @@
     <s v="dormitory"/>
     <x v="0"/>
     <n v="121000"/>
-    <x v="4"/>
+    <n v="1.72"/>
     <s v="Misfits"/>
   </r>
   <r>
@@ -1664,7 +2007,7 @@
     <s v="dorm"/>
     <x v="1"/>
     <n v="218023"/>
-    <x v="5"/>
+    <n v="3.1"/>
     <s v="Misfits"/>
   </r>
   <r>
@@ -1672,7 +2015,7 @@
     <s v="introduction"/>
     <x v="0"/>
     <n v="1773750"/>
-    <x v="6"/>
+    <n v="25.21"/>
     <s v="die namenlosen"/>
   </r>
   <r>
@@ -1680,7 +2023,7 @@
     <s v="intro"/>
     <x v="1"/>
     <n v="149671"/>
-    <x v="7"/>
+    <n v="2.13"/>
     <s v="die namenlosen"/>
   </r>
   <r>
@@ -1688,7 +2031,7 @@
     <s v="indie"/>
     <x v="1"/>
     <n v="531933"/>
-    <x v="8"/>
+    <n v="7.56"/>
     <s v="coffee beans"/>
   </r>
   <r>
@@ -1696,7 +2039,7 @@
     <s v="independent"/>
     <x v="0"/>
     <n v="5999437"/>
-    <x v="9"/>
+    <n v="85.28"/>
     <s v="coffee beans"/>
   </r>
   <r>
@@ -1704,7 +2047,7 @@
     <s v="decaffeinated"/>
     <x v="0"/>
     <n v="4972"/>
-    <x v="10"/>
+    <n v="7.0000000000000007E-2"/>
     <s v="coffee beans"/>
   </r>
   <r>
@@ -1712,7 +2055,7 @@
     <s v="decaf"/>
     <x v="1"/>
     <n v="7736"/>
-    <x v="11"/>
+    <n v="1.1E-5"/>
     <s v="coffee beans"/>
   </r>
   <r>
@@ -1720,7 +2063,7 @@
     <s v="application"/>
     <x v="0"/>
     <n v="11028485"/>
-    <x v="12"/>
+    <n v="1.6E-2"/>
     <s v="Team BadAtThis"/>
   </r>
   <r>
@@ -1728,7 +2071,7 @@
     <s v="app"/>
     <x v="1"/>
     <n v="5041979"/>
-    <x v="13"/>
+    <n v="7.1999999999999998E-3"/>
     <s v="Team BadAtThis"/>
   </r>
   <r>
@@ -1736,7 +2079,7 @@
     <s v="Gothic"/>
     <x v="0"/>
     <n v="141973"/>
-    <x v="14"/>
+    <n v="2.02"/>
     <s v="Misfits"/>
   </r>
   <r>
@@ -1744,7 +2087,7 @@
     <s v="Goth"/>
     <x v="1"/>
     <n v="56024"/>
-    <x v="15"/>
+    <n v="0.8"/>
     <s v="Misfits"/>
   </r>
   <r>
@@ -1752,7 +2095,7 @@
     <s v="baby-boomer"/>
     <x v="0"/>
     <n v="5846"/>
-    <x v="16"/>
+    <n v="0.08"/>
     <s v="die namenlosen"/>
   </r>
   <r>
@@ -1760,7 +2103,7 @@
     <s v="boomer"/>
     <x v="1"/>
     <n v="164970"/>
-    <x v="17"/>
+    <n v="2.34"/>
     <s v="die namenlosen"/>
   </r>
   <r>
@@ -1768,7 +2111,7 @@
     <s v="puppy"/>
     <x v="0"/>
     <n v="523713"/>
-    <x v="18"/>
+    <n v="7.44"/>
     <s v="coffee beans"/>
   </r>
   <r>
@@ -1776,7 +2119,7 @@
     <s v="pup"/>
     <x v="1"/>
     <n v="244567"/>
-    <x v="19"/>
+    <n v="3.48"/>
     <s v="coffee beans"/>
   </r>
   <r>
@@ -1784,7 +2127,7 @@
     <s v="picture"/>
     <x v="0"/>
     <n v="8912337"/>
-    <x v="20"/>
+    <n v="126.68"/>
     <s v="die namenlosen"/>
   </r>
   <r>
@@ -1792,7 +2135,7 @@
     <s v="pic"/>
     <x v="1"/>
     <n v="487848"/>
-    <x v="21"/>
+    <n v="6.93"/>
     <s v="die namenlosen"/>
   </r>
   <r>
@@ -1800,7 +2143,7 @@
     <s v="pornography"/>
     <x v="0"/>
     <n v="353109"/>
-    <x v="22"/>
+    <n v="5.0000000000000001E-4"/>
     <s v="Team BadAtThis"/>
   </r>
   <r>
@@ -1808,7 +2151,7 @@
     <s v="porn"/>
     <x v="1"/>
     <n v="463271"/>
-    <x v="23"/>
+    <n v="6.6E-4"/>
     <s v="Team BadAtThis"/>
   </r>
   <r>
@@ -1816,7 +2159,7 @@
     <s v="university"/>
     <x v="0"/>
     <n v="5968049"/>
-    <x v="24"/>
+    <n v="84.83"/>
     <s v="coffee beans"/>
   </r>
   <r>
@@ -1824,7 +2167,7 @@
     <s v="uni"/>
     <x v="1"/>
     <n v="77873"/>
-    <x v="25"/>
+    <n v="1.1E-4"/>
     <s v="coffee beans"/>
   </r>
   <r>
@@ -1832,7 +2175,7 @@
     <s v="prenuptial agreement"/>
     <x v="0"/>
     <n v="9565"/>
-    <x v="26"/>
+    <n v="1.4E-5"/>
     <s v="Team BadAtThis"/>
   </r>
   <r>
@@ -1840,17 +2183,17 @@
     <s v="prenup"/>
     <x v="1"/>
     <n v="14173"/>
-    <x v="27"/>
+    <n v="2.0000000000000002E-5"/>
     <s v="Team BadAtThis"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23093465-6685-944A-9CBB-AD98DD56950B}" name="PivotTable3" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:C15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{019843FB-2C32-2548-AA84-1911B428F63C}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="15">
         <item x="6"/>
         <item x="8"/>
@@ -1859,84 +2202,56 @@
         <item x="1"/>
         <item x="7"/>
         <item x="0"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item x="3"/>
-        <item h="1" x="10"/>
+        <item x="10"/>
         <item x="11"/>
         <item x="13"/>
         <item x="9"/>
-        <item h="1" x="12"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
+    <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="29">
-        <item x="11"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="16"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="15"/>
-        <item x="4"/>
-        <item x="14"/>
-        <item x="7"/>
-        <item x="17"/>
-        <item x="5"/>
-        <item x="19"/>
-        <item x="21"/>
-        <item x="18"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="24"/>
-        <item x="9"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="14">
     <i>
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="9"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i>
       <x v="8"/>
@@ -1945,10 +2260,25 @@
       <x v="10"/>
     </i>
     <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="2"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -1963,22 +2293,28 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of FreqTotRel" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Sum of FreqTotAbs" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="3">
+    <chartFormat chart="0" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
+        <references count="1">
           <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2004,15 +2340,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB98F852-6E50-8346-A200-8A49C1F6D528}" name="Table1" displayName="Table1" ref="A1:F29" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB98F852-6E50-8346-A200-8A49C1F6D528}" name="data" displayName="data" ref="A1:F29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F29" xr:uid="{FB98F852-6E50-8346-A200-8A49C1F6D528}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F29">
+    <sortCondition ref="A1:A29"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{068EB9CB-C021-6248-A066-F6BAD813AAC6}" name="WordFam" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{53BE94D5-C7F3-1D4B-9FD2-7F90AD0CB718}" name="WordForm" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C365F484-F673-D841-929F-C828233F496B}" name="WordType" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{1D4FBC2F-7FC3-8E41-BC2E-FD1E2FDEC832}" name="FreqTotAbs" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{9B65753B-E327-5C45-82C4-4511264116B9}" name="FreqTotRel" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{9AEF9BC8-93D0-B64D-B866-DC2E2E4EE016}" name="Group" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{068EB9CB-C021-6248-A066-F6BAD813AAC6}" name="WordFam" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{53BE94D5-C7F3-1D4B-9FD2-7F90AD0CB718}" name="WordForm" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C365F484-F673-D841-929F-C828233F496B}" name="WordType" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1D4FBC2F-7FC3-8E41-BC2E-FD1E2FDEC832}" name="FreqTotAbs" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9B65753B-E327-5C45-82C4-4511264116B9}" name="FreqTotRel" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9AEF9BC8-93D0-B64D-B866-DC2E2E4EE016}" name="Group" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2221,7 +2560,9 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2251,339 +2592,339 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>7140</v>
+        <v>11028485</v>
       </c>
       <c r="E2" s="1">
-        <v>0.1</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <v>38869</v>
+        <v>5041979</v>
       </c>
       <c r="E3" s="1">
-        <v>0.55000000000000004</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>1358399</v>
+        <v>164970</v>
       </c>
       <c r="E4" s="1">
-        <v>1.9E-3</v>
+        <v>2.34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>1597528</v>
+        <v>5846</v>
       </c>
       <c r="E5" s="1">
-        <v>2.3E-3</v>
+        <v>0.08</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>121000</v>
+        <v>7736</v>
       </c>
       <c r="E6" s="1">
-        <v>1.72</v>
+        <v>1.1E-5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>218023</v>
+        <v>4972</v>
       </c>
       <c r="E7" s="1">
-        <v>3.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>1773750</v>
+        <v>218023</v>
       </c>
       <c r="E8" s="1">
-        <v>25.21</v>
+        <v>3.1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>149671</v>
+        <v>121000</v>
       </c>
       <c r="E9" s="1">
-        <v>2.13</v>
+        <v>1.72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>531933</v>
+        <v>1597528</v>
       </c>
       <c r="E10" s="1">
-        <v>7.56</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2">
-        <v>5999437</v>
+        <v>1358399</v>
       </c>
       <c r="E11" s="1">
-        <v>85.28</v>
+        <v>1.9E-3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>4972</v>
+        <v>141973</v>
       </c>
       <c r="E12" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>2.02</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>7736</v>
+        <v>56024</v>
       </c>
       <c r="E13" s="1">
-        <v>1.1E-5</v>
+        <v>0.8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>11028485</v>
+        <v>38869</v>
       </c>
       <c r="E14" s="1">
-        <v>1.6E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>5041979</v>
+        <v>7140</v>
       </c>
       <c r="E15" s="1">
-        <v>7.1999999999999998E-3</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2">
-        <v>141973</v>
+        <v>5999437</v>
       </c>
       <c r="E16" s="1">
-        <v>2.02</v>
+        <v>85.28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>56024</v>
+        <v>531933</v>
       </c>
       <c r="E17" s="1">
-        <v>0.8</v>
+        <v>7.56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2">
-        <v>5846</v>
+        <v>1773750</v>
       </c>
       <c r="E18" s="1">
-        <v>0.08</v>
+        <v>25.21</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>18</v>
@@ -2591,19 +2932,19 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>164970</v>
+        <v>149671</v>
       </c>
       <c r="E19" s="1">
-        <v>2.34</v>
+        <v>2.13</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>18</v>
@@ -2611,99 +2952,99 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2">
-        <v>523713</v>
+        <v>8912337</v>
       </c>
       <c r="E20" s="1">
-        <v>7.44</v>
+        <v>126.68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>244567</v>
+        <v>487848</v>
       </c>
       <c r="E21" s="1">
-        <v>3.48</v>
+        <v>6.93</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>8912337</v>
+        <v>463271</v>
       </c>
       <c r="E22" s="1">
-        <v>126.68</v>
+        <v>6.6E-4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>487848</v>
+        <v>353109</v>
       </c>
       <c r="E23" s="1">
-        <v>6.93</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>353109</v>
+        <v>14173</v>
       </c>
       <c r="E24" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -2711,19 +3052,19 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2">
-        <v>463271</v>
+        <v>9565</v>
       </c>
       <c r="E25" s="1">
-        <v>6.6E-4</v>
+        <v>1.4E-5</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -2731,19 +3072,19 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2">
-        <v>5968049</v>
+        <v>523713</v>
       </c>
       <c r="E26" s="1">
-        <v>84.83</v>
+        <v>7.44</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>22</v>
@@ -2751,19 +3092,19 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>77873</v>
+        <v>244567</v>
       </c>
       <c r="E27" s="1">
-        <v>1.1E-4</v>
+        <v>3.48</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>22</v>
@@ -2771,42 +3112,42 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2">
-        <v>9565</v>
+        <v>5968049</v>
       </c>
       <c r="E28" s="1">
-        <v>1.4E-5</v>
+        <v>84.83</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="2">
-        <v>14173</v>
+        <v>77873</v>
       </c>
       <c r="E29" s="1">
-        <v>2.0000000000000002E-5</v>
+        <v>1.1E-4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2818,38 +3159,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8488B217-DBAA-F941-95B3-DBDAEB18D125}">
-  <dimension ref="A3:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EC899F-30A5-FE41-9594-0D7C09ACC587}">
+  <dimension ref="A3:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A7" sqref="A5:A15"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="6" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
@@ -2860,129 +3195,162 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>7.1999999999999998E-3</v>
+      <c r="B5" s="5">
+        <v>11028485</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5041979</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8912337</v>
+      </c>
+      <c r="C6" s="5">
+        <v>487848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5999437</v>
+      </c>
+      <c r="C7" s="5">
+        <v>531933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5968049</v>
+      </c>
+      <c r="C8" s="5">
+        <v>77873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1358399</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1597528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1773750</v>
+      </c>
+      <c r="C10" s="5">
+        <v>149671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5">
+        <v>353109</v>
+      </c>
+      <c r="C11" s="5">
+        <v>463271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5">
+        <v>523713</v>
+      </c>
+      <c r="C12" s="5">
+        <v>244567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5">
+        <v>121000</v>
+      </c>
+      <c r="C13" s="5">
+        <v>218023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="5">
+        <v>141973</v>
+      </c>
+      <c r="C14" s="5">
+        <v>56024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.08</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="B15" s="5">
+        <v>5846</v>
+      </c>
+      <c r="C15" s="5">
+        <v>164970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7140</v>
+      </c>
+      <c r="C16" s="5">
+        <v>38869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5">
+        <v>9565</v>
+      </c>
+      <c r="C17" s="5">
+        <v>14173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.1E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.9E-3</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2.02</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3">
-        <v>25.21</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.6E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.4E-5</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3">
-        <v>7.44</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3.48</v>
+      <c r="B18" s="5">
+        <v>4972</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7736</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A3:C19">
-    <sortCondition descending="1" ref="C4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A3:C18">
+    <sortCondition descending="1" ref="B4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
